--- a/Components/components.xlsx
+++ b/Components/components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\Desktop\class_4\EE464\proje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\Desktop\class_4\EE464\proje\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395D334D-AB22-44E5-8F32-EEB654A2D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577EB33-AE4C-454F-BE05-AFE3BA9E92E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>IXTP44N10T</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>2'li Bariyer Klemens</t>
+  </si>
+  <si>
+    <t>10uH 12X12 10A</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/10uh-12x12-10a-smd-guc-bobini-sri1209</t>
+  </si>
+  <si>
+    <t>10uH 12X12 9.2A</t>
+  </si>
+  <si>
+    <t>https://www.direnc.net/10uh-12x12-92a-smd-guc-bobini-sri1207</t>
   </si>
 </sst>
 </file>
@@ -557,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,6 +943,28 @@
         <v>5</v>
       </c>
     </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{5F5D1E4A-71A6-4F3C-9FCE-FC8ECDC22308}"/>

--- a/Components/components.xlsx
+++ b/Components/components.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Msi\Desktop\class_4\EE464\proje\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATAY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577EB33-AE4C-454F-BE05-AFE3BA9E92E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CCBE6A-8535-455A-BBE5-0FAE391723EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="2676" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>IXTP44N10T</t>
   </si>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>https://www.direnc.net/10uh-12x12-92a-smd-guc-bobini-sri1207</t>
+  </si>
+  <si>
+    <t>https://ozdisan.com/guc-yari-iletkenleri/mosfetler/discrete-mosfetler/IRF3710PBF/39256</t>
+  </si>
+  <si>
+    <t>IRF3710PBF</t>
+  </si>
+  <si>
+    <t>IRF3710Z</t>
+  </si>
+  <si>
+    <t>https://www.arkotekelektronik.com/irf3710z-to-220?gad_source=1&amp;gclid=CjwKCAjwz42xBhB9EiwA48pT77EQ3fa-xBdUTBWxhnXOTw_Ue6EQAt1KCKI11xPl5PdvNCWUsTQVvhoCeGYQAvD_BwEV</t>
   </si>
 </sst>
 </file>
@@ -569,19 +581,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="113.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="113.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -589,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -597,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -605,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -616,7 +628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -624,7 +636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -635,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -646,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -657,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -668,18 +680,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -690,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -701,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -712,7 +724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -723,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -734,7 +746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -745,7 +757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -756,18 +768,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -778,29 +790,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -811,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -822,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -833,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -844,7 +856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -855,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -866,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -877,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -888,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -899,7 +911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -910,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -921,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -932,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -943,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -954,7 +966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -963,6 +975,28 @@
       </c>
       <c r="C37">
         <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -970,6 +1004,12 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{5F5D1E4A-71A6-4F3C-9FCE-FC8ECDC22308}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{95D7739B-7574-485E-96AA-0BF49C371552}"/>
     <hyperlink ref="B23" r:id="rId3" xr:uid="{19514909-4324-4148-97FA-DF11B00DBE23}"/>
+    <hyperlink ref="B38" r:id="rId4" xr:uid="{5918A63F-4295-417B-92AB-BA4FD0F9FA60}"/>
+    <hyperlink ref="B39" r:id="rId5" xr:uid="{82098A75-4894-4539-8C7C-CA192D702D8A}"/>
+    <hyperlink ref="B22" r:id="rId6" xr:uid="{C0D7D248-51AE-4BEF-8DCE-137831F9B4CC}"/>
+    <hyperlink ref="B21" r:id="rId7" xr:uid="{EACBC564-DFC2-4921-835D-3EA21B2FF6F7}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{5189FCF6-617F-4292-A2C7-612CB527F421}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{E772265C-C96C-4064-97EE-8FBC7ACA4C00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
